--- a/Stock price - HPG - test.xlsx
+++ b/Stock price - HPG - test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL24H.VN\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\RProjects\Viet_Nam_Steel_stock_analysis-Time-Series-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7208C1B-BE3E-4478-AF5F-C9DADEDF435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BDCEE9-38C6-4676-A3D7-7784266A10C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19920" yWindow="1605" windowWidth="18945" windowHeight="13335" xr2:uid="{EF295A3D-46AF-4EF3-941F-8D31B7C68F8C}"/>
+    <workbookView xWindow="13230" yWindow="3690" windowWidth="21330" windowHeight="17085" xr2:uid="{EF295A3D-46AF-4EF3-941F-8D31B7C68F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -393,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE796B05-F79B-4652-B676-C1AB230D11B7}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,373 +400,88 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20230314</v>
+        <v>20230103</v>
       </c>
       <c r="B2">
-        <v>20.3</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20230313</v>
+        <v>20230104</v>
       </c>
       <c r="B3">
-        <v>21.1</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20230310</v>
+        <v>20230105</v>
       </c>
       <c r="B4">
-        <v>21.3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20230309</v>
+        <v>20230106</v>
       </c>
       <c r="B5">
-        <v>21.2</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20230308</v>
+        <v>20230109</v>
       </c>
       <c r="B6">
-        <v>21.2</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20230307</v>
+        <v>20230110</v>
       </c>
       <c r="B7">
-        <v>21.1</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20230306</v>
+        <v>20230111</v>
       </c>
       <c r="B8">
-        <v>20.399999999999999</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20230303</v>
+        <v>20230112</v>
       </c>
       <c r="B9">
-        <v>20.350000000000001</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20230302</v>
+        <v>20230113</v>
       </c>
       <c r="B10">
-        <v>20.6</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20230301</v>
+        <v>20230116</v>
       </c>
       <c r="B11">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>20230228</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>20230227</v>
-      </c>
-      <c r="B13">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>20230224</v>
-      </c>
-      <c r="B14">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>20230223</v>
-      </c>
-      <c r="B15">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>20230222</v>
-      </c>
-      <c r="B16">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>20230221</v>
-      </c>
-      <c r="B17">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>20230220</v>
-      </c>
-      <c r="B18">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>20230217</v>
-      </c>
-      <c r="B19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20230216</v>
-      </c>
-      <c r="B20">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20230215</v>
-      </c>
-      <c r="B21">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20230214</v>
-      </c>
-      <c r="B22">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20230213</v>
-      </c>
-      <c r="B23">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20230210</v>
-      </c>
-      <c r="B24">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>20230209</v>
-      </c>
-      <c r="B25">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>20230208</v>
-      </c>
-      <c r="B26">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>20230207</v>
-      </c>
-      <c r="B27">
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>20230206</v>
-      </c>
-      <c r="B28">
-        <v>21.15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>20230203</v>
-      </c>
-      <c r="B29">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>20230202</v>
-      </c>
-      <c r="B30">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>20230201</v>
-      </c>
-      <c r="B31">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>20230131</v>
-      </c>
-      <c r="B32">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>20230130</v>
-      </c>
-      <c r="B33">
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>20230127</v>
-      </c>
-      <c r="B34">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>20230119</v>
-      </c>
-      <c r="B35">
-        <v>21.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>20230118</v>
-      </c>
-      <c r="B36">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>20230117</v>
-      </c>
-      <c r="B37">
-        <v>21.65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>20230116</v>
-      </c>
-      <c r="B38">
         <v>20.25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>20230113</v>
-      </c>
-      <c r="B39">
-        <v>19.95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>20230112</v>
-      </c>
-      <c r="B40">
-        <v>20.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>20230111</v>
-      </c>
-      <c r="B41">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>20230110</v>
-      </c>
-      <c r="B42">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>20230109</v>
-      </c>
-      <c r="B43">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>20230106</v>
-      </c>
-      <c r="B44">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>20230105</v>
-      </c>
-      <c r="B45">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>20230104</v>
-      </c>
-      <c r="B46">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>20230103</v>
-      </c>
-      <c r="B47">
-        <v>19.25</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B47">
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>